--- a/Pupariation_data_template.xlsx
+++ b/Pupariation_data_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JQ/Documents/__RESEARCH/__PROJECTS/_SMARCAD+CrA/SCFAs_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JQ/Documents/_CODE REPOS/GitHub/Survival_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47F4546-0B21-6044-AFF2-B27EFBE76A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907290F7-85B3-6340-97C0-6FF0B2B4FAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="460" windowWidth="36460" windowHeight="28340" activeTab="1" xr2:uid="{FF948C06-BD39-497C-ADCD-B8D8DC22913A}"/>
+    <workbookView xWindow="11480" yWindow="460" windowWidth="36460" windowHeight="28340" activeTab="2" xr2:uid="{FF948C06-BD39-497C-ADCD-B8D8DC22913A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -462,30 +462,6 @@
     <t>mM</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Crotonic acid</t>
-  </si>
-  <si>
-    <t>Ore R</t>
-  </si>
-  <si>
-    <t>daxx1</t>
-  </si>
-  <si>
-    <t>daxx2</t>
-  </si>
-  <si>
-    <t>Oregon R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +; daxx[1]; +</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +; daxx[2]; +</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Full description of genotypes - identify transgene insertions and mutations in detail.
 Leave blank if needed, or add more rows (e.g. Genotype4, Genotype4, etc. -- </t>
@@ -540,13 +516,34 @@
     </r>
   </si>
   <si>
-    <t>Food re-melted, with hot crotonic acid 2M added to a final concentration of 50 mM, and 25µL of blue food dye (E133 in water 7% w/v)</t>
+    <t>Full description of treatments.</t>
   </si>
   <si>
-    <t>Food re-melted, with hot crotonic acid 2M added to a final concentration of 100 mM, and 25µL of blue food dye (E133 in water 7% w/v)</t>
+    <t xml:space="preserve"> +; mut[1]; +</t>
   </si>
   <si>
-    <t>Full description of treatments.</t>
+    <t xml:space="preserve"> +; mut[2]; +</t>
+  </si>
+  <si>
+    <t>Food re-melted, with drug 2M added to a final concentration of 100 mM, and 25µL of blue food dye (E133 in water 7% w/v)</t>
+  </si>
+  <si>
+    <t>Food re-melted, with drug 2M added to a final concentration of 50 mM, and 25µL of blue food dye (E133 in water 7% w/v)</t>
+  </si>
+  <si>
+    <t>wild-type</t>
+  </si>
+  <si>
+    <t>mut1</t>
+  </si>
+  <si>
+    <t>mut2</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -619,7 +616,7 @@
       <name val="AtkinsonHyperlegible-Regular"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,12 +639,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3D311"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -719,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -774,7 +765,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1901,7 +1891,7 @@
   <dimension ref="A1:H1115"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1955,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
@@ -1964,7 +1954,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -1981,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -1990,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="8">
         <v>2</v>
@@ -2007,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E4" s="8">
         <v>50</v>
@@ -2016,7 +2006,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
@@ -2033,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8">
         <v>50</v>
@@ -2041,8 +2031,8 @@
       <c r="F5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>33</v>
+      <c r="G5" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
@@ -2059,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8">
         <v>100</v>
@@ -2067,8 +2057,8 @@
       <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>33</v>
+      <c r="G6" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
@@ -2085,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8">
         <v>100</v>
@@ -2093,8 +2083,8 @@
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>33</v>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="8">
         <v>2</v>
@@ -2111,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8">
         <v>50</v>
@@ -2120,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
@@ -2137,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8">
         <v>50</v>
@@ -2146,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9" s="8">
         <v>2</v>
@@ -2163,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8">
         <v>100</v>
@@ -2172,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
@@ -2189,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8">
         <v>100</v>
@@ -2198,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H11" s="8">
         <v>2</v>
@@ -2215,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E12" s="8">
         <v>50</v>
@@ -2224,7 +2214,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
@@ -2241,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8">
         <v>50</v>
@@ -2250,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H13" s="8">
         <v>2</v>
@@ -2267,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8">
         <v>100</v>
@@ -2276,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H14" s="8">
         <v>1</v>
@@ -2293,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E15" s="8">
         <v>100</v>
@@ -2302,7 +2292,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H15" s="8">
         <v>2</v>
@@ -13319,8 +13309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2FC48-BB4B-3942-A32C-6526CB227AE5}">
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13354,7 +13344,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>15</v>
@@ -13401,7 +13391,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>22</v>
@@ -13425,10 +13415,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -13449,10 +13439,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -13473,7 +13463,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>23</v>
@@ -13497,7 +13487,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>24</v>
@@ -13521,10 +13511,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -17612,8 +17602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0596E2C7-6F61-1E40-9697-BC06A07B8BB6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
